--- a/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_information_services.xlsx
+++ b/teaching/traditional_assets/database/data/cayman_islands/cayman_islands_information_services.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,32 +590,35 @@
           <t>Information Services</t>
         </is>
       </c>
+      <c r="F2">
+        <v>0.301</v>
+      </c>
       <c r="G2">
-        <v>-1.729222520107239</v>
+        <v>0.07999615056117601</v>
       </c>
       <c r="H2">
-        <v>-1.729222520107239</v>
+        <v>0.07999615056117601</v>
       </c>
       <c r="I2">
-        <v>-1.439583708693057</v>
+        <v>-0.147401428302197</v>
       </c>
       <c r="J2">
-        <v>-1.439583708693057</v>
+        <v>-0.1259592075101148</v>
       </c>
       <c r="K2">
-        <v>-1.04</v>
+        <v>141.61</v>
       </c>
       <c r="L2">
-        <v>-1.394101876675603</v>
+        <v>0.5678323248605581</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0005247350859485204</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0.09603841536614645</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,73 +627,82 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
+        <v>13.6</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>390.227</v>
+      </c>
+      <c r="V2">
+        <v>0.01505630870473774</v>
+      </c>
+      <c r="W2">
+        <v>-2.027973258658284</v>
+      </c>
+      <c r="X2">
+        <v>0.07145886537644609</v>
+      </c>
+      <c r="Y2">
+        <v>-2.09943212403473</v>
+      </c>
+      <c r="Z2">
+        <v>0.09868747521802204</v>
+      </c>
+      <c r="AA2">
+        <v>-2.312631366258389</v>
+      </c>
+      <c r="AB2">
+        <v>0.0704384594007583</v>
+      </c>
+      <c r="AC2">
+        <v>-2.383069825659147</v>
+      </c>
+      <c r="AD2">
+        <v>1048.423</v>
+      </c>
+      <c r="AE2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0.079</v>
-      </c>
-      <c r="V2">
-        <v>0.02696245733788396</v>
-      </c>
-      <c r="W2">
-        <v>-0.7222222222222223</v>
-      </c>
-      <c r="X2">
-        <v>0.08481700515893802</v>
-      </c>
-      <c r="Y2">
-        <v>-0.8070392273811603</v>
-      </c>
-      <c r="Z2">
-        <v>1.508145501662765</v>
-      </c>
-      <c r="AA2">
-        <v>-2.171101694532434</v>
-      </c>
-      <c r="AB2">
-        <v>0.08163506780309072</v>
-      </c>
-      <c r="AC2">
-        <v>-2.252736762335525</v>
-      </c>
-      <c r="AD2">
-        <v>0.187</v>
-      </c>
-      <c r="AE2">
-        <v>0.05464723342510259</v>
-      </c>
       <c r="AF2">
-        <v>0.2416472334251026</v>
+        <v>1048.423</v>
       </c>
       <c r="AG2">
-        <v>0.1626472334251026</v>
+        <v>658.196</v>
       </c>
       <c r="AH2">
-        <v>0.07618982050665975</v>
+        <v>0.03887906158891946</v>
       </c>
       <c r="AI2">
-        <v>0.3713951600977938</v>
+        <v>0.2875209486118314</v>
       </c>
       <c r="AJ2">
-        <v>0.05259158938892974</v>
+        <v>0.02476652274251886</v>
       </c>
       <c r="AK2">
-        <v>0.2845237830516198</v>
+        <v>0.2021364807278186</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>68.10199999999999</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-207.798</v>
       </c>
       <c r="AN2">
-        <v>-0.1941848390446521</v>
+        <v>-78.65138784696174</v>
+      </c>
+      <c r="AO2">
+        <v>-0.5397785674429534</v>
       </c>
       <c r="AP2">
-        <v>-0.1688964002337514</v>
+        <v>-49.37704426106527</v>
+      </c>
+      <c r="AQ2">
+        <v>0.1769025688408936</v>
       </c>
     </row>
     <row r="3">
@@ -701,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sealand Capital Galaxy Limited (LSE:SCGL)</t>
+          <t>StoneCo Ltd. (NasdaqGS:STNE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -709,32 +721,35 @@
           <t>Information Services</t>
         </is>
       </c>
+      <c r="F3">
+        <v>0.301</v>
+      </c>
       <c r="G3">
-        <v>-1.729222520107239</v>
+        <v>0.08688656476267097</v>
       </c>
       <c r="H3">
-        <v>-1.729222520107239</v>
+        <v>0.08688656476267097</v>
       </c>
       <c r="I3">
-        <v>-1.439583708693057</v>
+        <v>-0.1415929203539823</v>
       </c>
       <c r="J3">
-        <v>-1.439583708693057</v>
+        <v>-0.1003983851884021</v>
       </c>
       <c r="K3">
-        <v>-1.04</v>
+        <v>143</v>
       </c>
       <c r="L3">
-        <v>-1.394101876675603</v>
+        <v>0.5752212389380531</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>13.6</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.0005249323570620772</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0951048951048951</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -743,73 +758,207 @@
         <v>-0</v>
       </c>
       <c r="R3">
+        <v>-0</v>
+      </c>
+      <c r="S3">
+        <v>13.6</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>390.2</v>
+      </c>
+      <c r="V3">
+        <v>0.01506092689158989</v>
+      </c>
+      <c r="W3">
+        <v>0.1057301293900185</v>
+      </c>
+      <c r="X3">
+        <v>0.07230155806225204</v>
+      </c>
+      <c r="Y3">
+        <v>0.03342857132776644</v>
+      </c>
+      <c r="Z3">
+        <v>0.09838920330866348</v>
+      </c>
+      <c r="AA3">
+        <v>-0.009878117132163199</v>
+      </c>
+      <c r="AB3">
+        <v>0.07070089954247212</v>
+      </c>
+      <c r="AC3">
+        <v>-0.08057901667463532</v>
+      </c>
+      <c r="AD3">
+        <v>1048.3</v>
+      </c>
+      <c r="AE3">
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="AF3">
+        <v>1048.3</v>
+      </c>
+      <c r="AG3">
+        <v>658.0999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.03888872401359232</v>
+      </c>
+      <c r="AI3">
+        <v>0.2874102100126117</v>
+      </c>
+      <c r="AJ3">
+        <v>0.02477207880690501</v>
+      </c>
+      <c r="AK3">
+        <v>0.2020447009701584</v>
+      </c>
+      <c r="AL3">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="AM3">
+        <v>-207.8</v>
+      </c>
+      <c r="AN3">
+        <v>-88.83898305084745</v>
+      </c>
+      <c r="AO3">
+        <v>-0.5168869309838474</v>
+      </c>
+      <c r="AP3">
+        <v>-55.77118644067796</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1693936477382098</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cayman Islands</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sealand Capital Galaxy Limited (LSE:SCGL)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Information Services</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-2.096569250317662</v>
+      </c>
+      <c r="H4">
+        <v>-2.096569250317662</v>
+      </c>
+      <c r="I4">
+        <v>-1.982210927573062</v>
+      </c>
+      <c r="J4">
+        <v>-1.982210927573062</v>
+      </c>
+      <c r="K4">
+        <v>-1.39</v>
+      </c>
+      <c r="L4">
+        <v>-1.766200762388818</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0.079</v>
-      </c>
-      <c r="V3">
-        <v>0.02696245733788396</v>
-      </c>
-      <c r="W3">
-        <v>-0.7222222222222223</v>
-      </c>
-      <c r="X3">
-        <v>0.08481700515893802</v>
-      </c>
-      <c r="Y3">
-        <v>-0.8070392273811603</v>
-      </c>
-      <c r="Z3">
-        <v>1.508145501662765</v>
-      </c>
-      <c r="AA3">
-        <v>-2.171101694532434</v>
-      </c>
-      <c r="AB3">
-        <v>0.08163506780309072</v>
-      </c>
-      <c r="AC3">
-        <v>-2.252736762335525</v>
-      </c>
-      <c r="AD3">
-        <v>0.187</v>
-      </c>
-      <c r="AE3">
-        <v>0.05464723342510259</v>
-      </c>
-      <c r="AF3">
-        <v>0.2416472334251026</v>
-      </c>
-      <c r="AG3">
-        <v>0.1626472334251026</v>
-      </c>
-      <c r="AH3">
-        <v>0.07618982050665975</v>
-      </c>
-      <c r="AI3">
-        <v>0.3713951600977938</v>
-      </c>
-      <c r="AJ3">
-        <v>0.05259158938892974</v>
-      </c>
-      <c r="AK3">
-        <v>0.2845237830516198</v>
-      </c>
-      <c r="AL3">
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
         <v>0</v>
       </c>
-      <c r="AM3">
+      <c r="S4">
         <v>0</v>
       </c>
-      <c r="AN3">
-        <v>-0.1941848390446521</v>
-      </c>
-      <c r="AP3">
-        <v>-0.1688964002337514</v>
+      <c r="U4">
+        <v>0.027</v>
+      </c>
+      <c r="V4">
+        <v>0.002772073921971252</v>
+      </c>
+      <c r="W4">
+        <v>-4.161676646706586</v>
+      </c>
+      <c r="X4">
+        <v>0.07061617269064015</v>
+      </c>
+      <c r="Y4">
+        <v>-4.232292819397226</v>
+      </c>
+      <c r="Z4">
+        <v>2.328402366863905</v>
+      </c>
+      <c r="AA4">
+        <v>-4.615384615384615</v>
+      </c>
+      <c r="AB4">
+        <v>0.07017601925904446</v>
+      </c>
+      <c r="AC4">
+        <v>-4.685560634643659</v>
+      </c>
+      <c r="AD4">
+        <v>0.123</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.123</v>
+      </c>
+      <c r="AG4">
+        <v>0.096</v>
+      </c>
+      <c r="AH4">
+        <v>0.01247085065395924</v>
+      </c>
+      <c r="AI4">
+        <v>-0.1258955987717502</v>
+      </c>
+      <c r="AJ4">
+        <v>0.009760065067100447</v>
+      </c>
+      <c r="AK4">
+        <v>-0.09561752988047809</v>
+      </c>
+      <c r="AL4">
+        <v>0.002</v>
+      </c>
+      <c r="AM4">
+        <v>0.002</v>
+      </c>
+      <c r="AN4">
+        <v>-0.08039215686274509</v>
+      </c>
+      <c r="AO4">
+        <v>-780</v>
+      </c>
+      <c r="AP4">
+        <v>-0.06274509803921569</v>
+      </c>
+      <c r="AQ4">
+        <v>-780</v>
       </c>
     </row>
   </sheetData>
